--- a/supp_data/pcawg_negative_sig_path_survivals_nonepi.xlsx
+++ b/supp_data/pcawg_negative_sig_path_survivals_nonepi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t xml:space="preserve">Panc_AdenoCA__HR+Cell.Cycle</t>
   </si>
@@ -678,6 +678,39 @@
   </si>
   <si>
     <t xml:space="preserve">-21.17599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidney_RCC__CL SBS5+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__CL SBS5+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__CL SBS1+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS5+TGF.Beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+TGF.Beta</t>
   </si>
 </sst>
 </file>
